--- a/biology/Botanique/Jour_après_jour_(film,_1962)/Jour_après_jour_(film,_1962).xlsx
+++ b/biology/Botanique/Jour_après_jour_(film,_1962)/Jour_après_jour_(film,_1962).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jour_apr%C3%A8s_jour_(film,_1962)</t>
+          <t>Jour_après_jour_(film,_1962)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jour après jour est un film québécois documentaire en noir et blanc réalisé en 1962 par Clément Perron pour l'Office national du film du Canada.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jour_apr%C3%A8s_jour_(film,_1962)</t>
+          <t>Jour_après_jour_(film,_1962)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Windsor (Québec), 6500 habitants dont 1500 travaillent pour la fabrique de papier Domtar. Jour après jour, ils ont tributaires des mêmes machines, accomplissent les mêmes gestes, éternellement répétés. Ces vies vouées à l'impitoyable pâte à papier ont-elles un sens ?
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jour_apr%C3%A8s_jour_(film,_1962)</t>
+          <t>Jour_après_jour_(film,_1962)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Réalisateur, scénario et commentaire: Clément Perron
 Directeur de la photographie : Guy Borremans
